--- a/Data/OtherTemplates/Tracker.xlsx
+++ b/Data/OtherTemplates/Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpa11194\Documents\UiPath\MDB CHARGE BACK\Data\OtherTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E856F60F-F29C-4AC2-B1D8-C0A334AE1025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA08C16-3C6C-4FC9-9E3E-019030A4822E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{075AD9F0-B0C3-48B0-8B56-034DFAC0293F}"/>
   </bookViews>
@@ -122,8 +122,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:CE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,13 +469,13 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
